--- a/mj2.xlsx
+++ b/mj2.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>asmas</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,8 +354,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -358,7 +372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mj2.xlsx
+++ b/mj2.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asmas</t>
+  </si>
+  <si>
+    <t>gwqdsahcgv</t>
   </si>
 </sst>
 </file>
@@ -350,15 +353,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
